--- a/myapp/files/9_MethodComparePercent/Scenario 312.xlsx
+++ b/myapp/files/9_MethodComparePercent/Scenario 312.xlsx
@@ -581,10 +581,10 @@
         <v>12</v>
       </c>
       <c r="E2" t="n">
-        <v>3241</v>
+        <v>21060</v>
       </c>
       <c r="F2" t="n">
-        <v>3.96292628052285</v>
+        <v>3.75625373440468</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -593,10 +593,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J2" t="n">
-        <v>6.25</v>
+        <v>3.6036036036036</v>
       </c>
       <c r="K2" t="n">
         <v>2</v>
@@ -619,10 +619,10 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>3447</v>
+        <v>31204</v>
       </c>
       <c r="F3" t="n">
-        <v>4.21481236931881</v>
+        <v>5.56553378577225</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -631,10 +631,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J3" t="n">
-        <v>4.16666666666667</v>
+        <v>4.05405405405405</v>
       </c>
       <c r="K3" t="n">
         <v>5</v>
@@ -657,10 +657,10 @@
         <v>16</v>
       </c>
       <c r="E4" t="n">
-        <v>1472</v>
+        <v>24323</v>
       </c>
       <c r="F4" t="n">
-        <v>1.79988506168764</v>
+        <v>4.33824119572294</v>
       </c>
       <c r="G4" t="n">
         <v>3</v>
@@ -669,10 +669,10 @@
         <v>5</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J4" t="n">
-        <v>2.08333333333333</v>
+        <v>3.6036036036036</v>
       </c>
       <c r="K4" t="n">
         <v>2</v>
@@ -695,10 +695,10 @@
         <v>18</v>
       </c>
       <c r="E5" t="n">
-        <v>1492</v>
+        <v>14914</v>
       </c>
       <c r="F5" t="n">
-        <v>1.82434002176491</v>
+        <v>2.66005546984385</v>
       </c>
       <c r="G5" t="n">
         <v>4</v>
@@ -707,10 +707,10 @@
         <v>6.66666666666667</v>
       </c>
       <c r="I5" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J5" t="n">
-        <v>4.16666666666667</v>
+        <v>4.5045045045045</v>
       </c>
       <c r="K5" t="n">
         <v>1</v>
@@ -733,10 +733,10 @@
         <v>20</v>
       </c>
       <c r="E6" t="n">
-        <v>3266</v>
+        <v>23375</v>
       </c>
       <c r="F6" t="n">
-        <v>3.99349498061944</v>
+        <v>4.16915626978677</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -745,10 +745,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J6" t="n">
-        <v>4.16666666666667</v>
+        <v>3.6036036036036</v>
       </c>
       <c r="K6" t="n">
         <v>6</v>
@@ -771,10 +771,10 @@
         <v>12</v>
       </c>
       <c r="E7" t="n">
-        <v>290</v>
+        <v>13849</v>
       </c>
       <c r="F7" t="n">
-        <v>0.354596921120526</v>
+        <v>2.47010246760543</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J7" t="n">
-        <v>2.08333333333333</v>
+        <v>3.15315315315315</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -809,10 +809,10 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>2611</v>
+        <v>28453</v>
       </c>
       <c r="F8" t="n">
-        <v>3.1925950380886</v>
+        <v>5.07486645322965</v>
       </c>
       <c r="G8" t="n">
         <v>2</v>
@@ -821,10 +821,10 @@
         <v>3.33333333333333</v>
       </c>
       <c r="I8" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="J8" t="n">
-        <v>4.16666666666667</v>
+        <v>4.95495495495495</v>
       </c>
       <c r="K8" t="n">
         <v>2</v>
@@ -847,10 +847,10 @@
         <v>16</v>
       </c>
       <c r="E9" t="n">
-        <v>11264</v>
+        <v>49883</v>
       </c>
       <c r="F9" t="n">
-        <v>13.7730335155228</v>
+        <v>8.89711324944486</v>
       </c>
       <c r="G9" t="n">
         <v>7</v>
@@ -859,16 +859,16 @@
         <v>11.6666666666667</v>
       </c>
       <c r="I9" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="J9" t="n">
-        <v>8.33333333333333</v>
+        <v>8.10810810810811</v>
       </c>
       <c r="K9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L9" t="n">
-        <v>8.33333333333333</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -885,10 +885,10 @@
         <v>18</v>
       </c>
       <c r="E10" t="n">
-        <v>9805</v>
+        <v>41591</v>
       </c>
       <c r="F10" t="n">
-        <v>11.9890441778854</v>
+        <v>7.41815522638296</v>
       </c>
       <c r="G10" t="n">
         <v>2</v>
@@ -897,16 +897,16 @@
         <v>3.33333333333333</v>
       </c>
       <c r="I10" t="n">
+        <v>20</v>
+      </c>
+      <c r="J10" t="n">
+        <v>9.00900900900901</v>
+      </c>
+      <c r="K10" t="n">
         <v>6</v>
       </c>
-      <c r="J10" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K10" t="n">
-        <v>7</v>
-      </c>
       <c r="L10" t="n">
-        <v>11.6666666666667</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -923,10 +923,10 @@
         <v>20</v>
       </c>
       <c r="E11" t="n">
-        <v>60</v>
+        <v>18681</v>
       </c>
       <c r="F11" t="n">
-        <v>0.073364880231833</v>
+        <v>3.33193618292563</v>
       </c>
       <c r="G11" t="n">
         <v>4</v>
@@ -935,10 +935,10 @@
         <v>6.66666666666667</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J11" t="n">
-        <v>2.08333333333333</v>
+        <v>4.5045045045045</v>
       </c>
       <c r="K11" t="n">
         <v>3</v>
@@ -961,10 +961,10 @@
         <v>12</v>
       </c>
       <c r="E12" t="n">
-        <v>2450</v>
+        <v>7615</v>
       </c>
       <c r="F12" t="n">
-        <v>2.99573260946651</v>
+        <v>1.35820855591128</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
@@ -973,10 +973,10 @@
         <v>1.66666666666667</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J12" t="n">
-        <v>2.08333333333333</v>
+        <v>2.25225225225225</v>
       </c>
       <c r="K12" t="n">
         <v>1</v>
@@ -999,10 +999,10 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>3587</v>
+        <v>19029</v>
       </c>
       <c r="F13" t="n">
-        <v>4.38599708985975</v>
+        <v>3.39400533295283</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1011,10 +1011,10 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J13" t="n">
-        <v>4.16666666666667</v>
+        <v>4.05405405405405</v>
       </c>
       <c r="K13" t="n">
         <v>1</v>
@@ -1037,10 +1037,10 @@
         <v>16</v>
       </c>
       <c r="E14" t="n">
-        <v>5733</v>
+        <v>41648</v>
       </c>
       <c r="F14" t="n">
-        <v>7.01001430615165</v>
+        <v>7.42832172509431</v>
       </c>
       <c r="G14" t="n">
         <v>11</v>
@@ -1049,10 +1049,10 @@
         <v>18.3333333333333</v>
       </c>
       <c r="I14" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="J14" t="n">
-        <v>4.16666666666667</v>
+        <v>6.30630630630631</v>
       </c>
       <c r="K14" t="n">
         <v>8</v>
@@ -1075,10 +1075,10 @@
         <v>18</v>
       </c>
       <c r="E15" t="n">
-        <v>10225</v>
+        <v>32193</v>
       </c>
       <c r="F15" t="n">
-        <v>12.5025983395082</v>
+        <v>5.74193145639553</v>
       </c>
       <c r="G15" t="n">
         <v>11</v>
@@ -1087,10 +1087,10 @@
         <v>18.3333333333333</v>
       </c>
       <c r="I15" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="J15" t="n">
-        <v>10.4166666666667</v>
+        <v>7.65765765765766</v>
       </c>
       <c r="K15" t="n">
         <v>2</v>
@@ -1113,10 +1113,10 @@
         <v>20</v>
       </c>
       <c r="E16" t="n">
-        <v>9929</v>
+        <v>26945</v>
       </c>
       <c r="F16" t="n">
-        <v>12.1406649303645</v>
+        <v>4.80590013644512</v>
       </c>
       <c r="G16" t="n">
         <v>2</v>
@@ -1125,10 +1125,10 @@
         <v>3.33333333333333</v>
       </c>
       <c r="I16" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="J16" t="n">
-        <v>10.4166666666667</v>
+        <v>5.40540540540541</v>
       </c>
       <c r="K16" t="n">
         <v>5</v>
@@ -1151,10 +1151,10 @@
         <v>12</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>9438</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1.68335815504802</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1163,10 +1163,10 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>1.35135135135135</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1189,10 +1189,10 @@
         <v>14</v>
       </c>
       <c r="E18" t="n">
-        <v>897</v>
+        <v>20498</v>
       </c>
       <c r="F18" t="n">
-        <v>1.0968049594659</v>
+        <v>3.65601562430328</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1201,10 +1201,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J18" t="n">
-        <v>2.08333333333333</v>
+        <v>2.7027027027027</v>
       </c>
       <c r="K18" t="n">
         <v>1</v>
@@ -1227,10 +1227,10 @@
         <v>16</v>
       </c>
       <c r="E19" t="n">
-        <v>6099</v>
+        <v>27957</v>
       </c>
       <c r="F19" t="n">
-        <v>7.45754007556583</v>
+        <v>4.98640007847824</v>
       </c>
       <c r="G19" t="n">
         <v>4</v>
@@ -1239,10 +1239,10 @@
         <v>6.66666666666667</v>
       </c>
       <c r="I19" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J19" t="n">
-        <v>4.16666666666667</v>
+        <v>4.05405405405405</v>
       </c>
       <c r="K19" t="n">
         <v>2</v>
@@ -1265,10 +1265,10 @@
         <v>18</v>
       </c>
       <c r="E20" t="n">
-        <v>3048</v>
+        <v>23376</v>
       </c>
       <c r="F20" t="n">
-        <v>3.72693591577712</v>
+        <v>4.16933462941329</v>
       </c>
       <c r="G20" t="n">
         <v>4</v>
@@ -1277,10 +1277,10 @@
         <v>6.66666666666667</v>
       </c>
       <c r="I20" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="J20" t="n">
-        <v>4.16666666666667</v>
+        <v>5.40540540540541</v>
       </c>
       <c r="K20" t="n">
         <v>1</v>
@@ -1303,10 +1303,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>19247</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>3.43288773153309</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -1315,10 +1315,10 @@
         <v>1.66666666666667</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>3.15315315315315</v>
       </c>
       <c r="K21" t="n">
         <v>1</v>
@@ -1341,10 +1341,10 @@
         <v>12</v>
       </c>
       <c r="E22" t="n">
-        <v>897</v>
+        <v>7985</v>
       </c>
       <c r="F22" t="n">
-        <v>1.0968049594659</v>
+        <v>1.42420161772181</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J22" t="n">
-        <v>2.08333333333333</v>
+        <v>1.35135135135135</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -1379,10 +1379,10 @@
         <v>14</v>
       </c>
       <c r="E23" t="n">
-        <v>1778</v>
+        <v>11822</v>
       </c>
       <c r="F23" t="n">
-        <v>2.17404595086998</v>
+        <v>2.10856750465965</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -1391,10 +1391,10 @@
         <v>1.66666666666667</v>
       </c>
       <c r="I23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J23" t="n">
-        <v>4.16666666666667</v>
+        <v>1.8018018018018</v>
       </c>
       <c r="K23" t="n">
         <v>2</v>
@@ -1417,10 +1417,10 @@
         <v>16</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>10044</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>1.79144408871608</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -1429,10 +1429,10 @@
         <v>1.66666666666667</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.900900900900901</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -1455,10 +1455,10 @@
         <v>18</v>
       </c>
       <c r="E25" t="n">
-        <v>192</v>
+        <v>16125</v>
       </c>
       <c r="F25" t="n">
-        <v>0.234767616741866</v>
+        <v>2.87604897755344</v>
       </c>
       <c r="G25" t="n">
         <v>2</v>
@@ -1467,10 +1467,10 @@
         <v>3.33333333333333</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J25" t="n">
-        <v>2.08333333333333</v>
+        <v>2.25225225225225</v>
       </c>
       <c r="K25" t="n">
         <v>1</v>
@@ -1493,10 +1493,10 @@
         <v>20</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>19410</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>3.46196035065503</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -1505,10 +1505,10 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>2.25225225225225</v>
       </c>
       <c r="K26" t="n">
         <v>2</v>
